--- a/doc/04_DB定義書_F2.xlsx
+++ b/doc/04_DB定義書_F2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\チーム開発\DB設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8CEE4C-EC92-48F7-8339-6D4213281127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE21B3B-8F0A-461F-8C61-3F37C2DF8F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="585" windowWidth="17130" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -276,10 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -337,21 +333,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>状態は3種類あり、0が未着手、1が着手、2が完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キーとする</t>
     <rPh sb="0" eb="2">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ミチャクシュ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>チャクシュ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カンリョウ</t>
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川田怜奈</t>
+    <rPh sb="0" eb="2">
+      <t>カワダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※データ型を変更（ユーザIDとタスク期限）</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川田怜奈</t>
+    <rPh sb="0" eb="4">
+      <t>カワダレナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※データ型変更（ユーザID）</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -813,9 +845,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -923,10 +953,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1196,9 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1260,7 +1288,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -1274,8 +1304,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="7">
+        <v>44734</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -1329,13 +1363,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1381,19 +1415,19 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>Task_Limit DATE ,</v>
+        <v>Task_Limit DATETIME ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1413,12 +1447,14 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
         <v>State_Flag INT ,</v>
@@ -1435,21 +1471,23 @@
         <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">User_Id INT </v>
+        <v>User_Id VARCHAR (20)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1737,9 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82878ECC-C6D7-4106-8115-391A121E12AF}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1756,7 +1792,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1801,7 +1837,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -1815,8 +1853,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="7">
+        <v>44734</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -1866,21 +1908,23 @@
         <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>User_Id INT ,</v>
+        <v>User_Id VARCHAR (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1888,10 +1932,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -2248,9 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F2D109-5A19-4A60-98A6-4268EEAA7D8D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2267,7 +2309,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2307,7 +2349,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2321,7 +2363,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2371,21 +2413,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2399,10 +2441,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -2413,7 +2455,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>

--- a/doc/04_DB定義書_F2.xlsx
+++ b/doc/04_DB定義書_F2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE21B3B-8F0A-461F-8C61-3F37C2DF8F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8C304-80A2-40B3-98D5-AE4793026452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="585" windowWidth="17130" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1945,7 +1945,9 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
